--- a/基本設計、テスト技法_賀来先生/テスト技法/サンプル.xlsx
+++ b/基本設計、テスト技法_賀来先生/テスト技法/サンプル.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaku\Desktop\基本設計、テスト技法\テスト技法\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\YANG\詳細設計書\資材管理\git-demo\基本設計、テスト技法_賀来先生\テスト技法\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E5A70C4-4B10-41EC-A671-97B3FEE1352B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6DE247-48D2-4C2F-8560-351EC77B5BEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="23490" windowHeight="16220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="103">
   <si>
     <t>条件</t>
     <rPh sb="0" eb="2">
@@ -741,6 +741,91 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑：正常系、直交表のNo.1</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイジョウケイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>チョッコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オレンジ色：異常系、直交表のNo.3</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>イジョウケイ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>チョッコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青色：異常系、直交表のNo.2</t>
+    <rPh sb="0" eb="2">
+      <t>アオイロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>チョッコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤色：異常系、直交表のNo.4</t>
+    <rPh sb="0" eb="2">
+      <t>アカイロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ケイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>チョッコウヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正常系</t>
+    <rPh sb="0" eb="2">
+      <t>セイジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="3">
+      <t>イジョウケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -772,7 +857,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -806,6 +891,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +977,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -885,6 +994,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -894,17 +1005,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1181,58 +1301,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FA532A-4C4B-4B83-97B3-B6EDD2FAEB33}">
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="20.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="D1">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D1" s="17">
         <v>1</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="17">
         <v>2</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="17">
         <v>3</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="18">
         <v>4</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="18">
         <v>5</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="18">
         <v>6</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="18">
         <v>7</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="18">
         <v>8</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="18">
         <v>9</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="18">
         <v>10</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="18">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+      <c r="O1" s="18">
+        <v>12</v>
+      </c>
+      <c r="P1" s="18">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="18">
+        <v>14</v>
+      </c>
+      <c r="R1" s="18">
+        <v>15</v>
+      </c>
+      <c r="S1" s="19">
+        <v>16</v>
+      </c>
+      <c r="T1" s="19">
+        <v>17</v>
+      </c>
+      <c r="U1" s="19">
+        <v>18</v>
+      </c>
+      <c r="V1" s="19">
+        <v>19</v>
+      </c>
+      <c r="W1" s="19">
+        <v>20</v>
+      </c>
+      <c r="X1" s="19">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="19">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="19">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="20">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1243,24 +1405,43 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-      <c r="N2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1275,16 +1456,37 @@
       <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="5"/>
+      <c r="K3" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="L3" s="5" t="s">
         <v>20</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1302,20 +1504,41 @@
       <c r="M4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+      <c r="N4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA4" s="5"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1323,10 +1546,27 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1334,19 +1574,32 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1365,8 +1618,12 @@
       <c r="H7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="K7" s="5" t="s">
         <v>20</v>
       </c>
@@ -1379,10 +1636,35 @@
       <c r="N7" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+      <c r="O7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1391,18 +1673,37 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
@@ -1412,17 +1713,34 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11" t="s">
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA9" s="5"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1437,48 +1755,92 @@
       <c r="F10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA10" s="5"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="J11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="M11" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="N11" s="5"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="2" t="s">
         <v>16</v>
       </c>
@@ -1486,19 +1848,36 @@
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="K12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+      <c r="N12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="2" t="s">
         <v>17</v>
       </c>
@@ -1507,18 +1886,35 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="I13" s="5" t="s">
+        <v>20</v>
+      </c>
       <c r="J13" s="5"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="L13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="5"/>
       <c r="N13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
+      <c r="O13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="5"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1552,11 +1948,44 @@
       <c r="M14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
+      <c r="N14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1570,18 +1999,37 @@
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="14"/>
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
@@ -1599,13 +2047,26 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
       <c r="N16" s="5"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="12" t="s">
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
@@ -1633,22 +2094,84 @@
       <c r="N17" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="O17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="T17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="U17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="V17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA17" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="D22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" s="21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -1658,8 +2181,11 @@
       <c r="C27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -1669,8 +2195,11 @@
       <c r="C28" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>3</v>
       </c>
@@ -1679,14 +2208,31 @@
       </c>
       <c r="C29" s="4">
         <v>1</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A30" s="3">
+        <v>4</v>
+      </c>
+      <c r="B30" s="4">
+        <v>0</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B2:B9"/>
     <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
   </mergeCells>
@@ -1701,15 +2247,15 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="19.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="D1">
         <v>1</v>
       </c>
@@ -1747,11 +2293,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1776,9 +2322,9 @@
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1801,9 +2347,9 @@
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1830,9 +2376,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
@@ -1851,9 +2397,9 @@
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1892,9 +2438,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1913,9 +2459,9 @@
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1934,9 +2480,9 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>28</v>
       </c>
@@ -1955,9 +2501,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1998,9 +2544,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="2" t="s">
         <v>30</v>
       </c>
@@ -2019,9 +2565,9 @@
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2040,9 +2586,9 @@
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="2" t="s">
         <v>31</v>
       </c>
@@ -2061,9 +2607,9 @@
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2102,9 +2648,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
@@ -2123,9 +2669,9 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2160,9 +2706,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>28</v>
       </c>
@@ -2185,9 +2731,9 @@
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2206,14 +2752,14 @@
       <c r="N18" s="5"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10" t="s">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A19" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5" t="s">
         <v>20</v>
       </c>
@@ -2233,12 +2779,12 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10"/>
-      <c r="B20" s="12" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
@@ -2270,12 +2816,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>21</v>
@@ -2287,7 +2833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2301,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -2315,7 +2861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>3</v>
       </c>
@@ -2329,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>3</v>
       </c>
@@ -2363,31 +2909,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B765179E-FF77-40D5-8FFF-DBD66272A2E8}">
   <dimension ref="A3:L16"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
-    <col min="4" max="4" width="19.75" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="21.296875" customWidth="1"/>
     <col min="6" max="6" width="16.5" customWidth="1"/>
     <col min="7" max="7" width="19" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="10" width="19.4140625" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="9" max="10" width="19.3984375" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="J3" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -2425,7 +2971,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A5" s="7">
         <v>1</v>
       </c>
@@ -2455,7 +3001,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A6" s="7">
         <v>2</v>
       </c>
@@ -2485,7 +3031,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -2515,7 +3061,7 @@
       <c r="K7" s="7"/>
       <c r="L7" s="7"/>
     </row>
-    <row r="8" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -2545,7 +3091,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A9" s="7">
         <v>5</v>
       </c>
@@ -2575,7 +3121,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
     </row>
-    <row r="10" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A10" s="7">
         <v>6</v>
       </c>
@@ -2605,7 +3151,7 @@
       <c r="K10" s="7"/>
       <c r="L10" s="7"/>
     </row>
-    <row r="11" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A11" s="7">
         <v>7</v>
       </c>
@@ -2635,7 +3181,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
     </row>
-    <row r="12" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A12" s="7">
         <v>8</v>
       </c>
@@ -2665,7 +3211,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A13" s="7">
         <v>9</v>
       </c>
@@ -2695,7 +3241,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
     </row>
-    <row r="14" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A14" s="7">
         <v>10</v>
       </c>
@@ -2725,7 +3271,7 @@
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
     </row>
-    <row r="15" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A15" s="7">
         <v>11</v>
       </c>
@@ -2755,7 +3301,7 @@
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
     </row>
-    <row r="16" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:12" s="6" customFormat="1" ht="54" x14ac:dyDescent="0.45">
       <c r="A16" s="7">
         <v>12</v>
       </c>
@@ -2795,23 +3341,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759F4A0F-9EC0-4559-86FB-ADB6EC3B275D}">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>68</v>
       </c>
@@ -2822,7 +3368,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B3">
         <v>1</v>
       </c>
@@ -2833,12 +3379,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>68</v>
       </c>
@@ -2849,7 +3395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B6">
         <v>1</v>
       </c>
@@ -2860,7 +3406,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B7">
         <v>2</v>
       </c>
@@ -2871,12 +3417,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
         <v>68</v>
       </c>
@@ -2887,7 +3433,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B10">
         <v>1</v>
       </c>
@@ -2898,7 +3444,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B11">
         <v>2</v>
       </c>
@@ -2909,7 +3455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B12">
         <v>3</v>
       </c>
@@ -2920,7 +3466,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B13">
         <v>4</v>
       </c>
@@ -2931,7 +3477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B14">
         <v>5</v>
       </c>
@@ -2942,7 +3488,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="B15">
         <v>6</v>
       </c>
@@ -2953,11 +3499,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C18" s="5" t="s">
@@ -2975,9 +3521,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="10"/>
-      <c r="B19" s="13" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="12"/>
+      <c r="B19" s="10" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="5"/>
@@ -2991,9 +3537,9 @@
       </c>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="10"/>
-      <c r="B20" s="13" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="12"/>
+      <c r="B20" s="10" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="5" t="s">
@@ -3009,9 +3555,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="10"/>
-      <c r="B21" s="13" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="12"/>
+      <c r="B21" s="10" t="s">
         <v>90</v>
       </c>
       <c r="C21" s="5"/>
@@ -3027,9 +3573,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="10"/>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="12"/>
+      <c r="B22" s="10" t="s">
         <v>91</v>
       </c>
       <c r="C22" s="5" t="s">
@@ -3045,9 +3591,9 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="10"/>
-      <c r="B23" s="13" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="12"/>
+      <c r="B23" s="10" t="s">
         <v>92</v>
       </c>
       <c r="C23" s="5"/>
@@ -3063,11 +3609,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="11" t="s">
         <v>86</v>
       </c>
       <c r="C24" s="5"/>
@@ -3079,9 +3625,9 @@
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="16"/>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="11" t="s">
         <v>93</v>
       </c>
       <c r="C25" s="5"/>
@@ -3093,9 +3639,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>94</v>
       </c>
       <c r="C26" s="5"/>
@@ -3111,9 +3657,9 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="16"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="5" t="s">
